--- a/Production/SmartSensor v1.2 - gerber/SmartSensor BoM.xlsx
+++ b/Production/SmartSensor v1.2 - gerber/SmartSensor BoM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SmartSensor\Hardware\SmartSensor v1.2 - gerber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SmartSensor\Production\SmartSensor v1.2 - gerber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD88F89-F38A-401B-9E22-DDBC913424F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC9B79E-5DE5-4C19-A084-38AF7070D081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SmartSensor BoM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="141">
   <si>
     <t>Item</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>SmartSensor v1.2 - 20210616</t>
+  </si>
+  <si>
+    <t>Andere footprint realiseren</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +771,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -932,7 +941,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -953,6 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1311,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,7 +1668,7 @@
       <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
@@ -1993,6 +2003,9 @@
       <c r="G27" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="H27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2027,7 +2040,7 @@
       <c r="C29" t="s">
         <v>73</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="10" t="s">
         <v>74</v>
       </c>
       <c r="E29" t="s">
@@ -2050,7 +2063,7 @@
       <c r="C30" t="s">
         <v>77</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E30" t="s">
@@ -2109,7 +2122,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42</v>
       </c>
@@ -2119,7 +2132,7 @@
       <c r="C33" t="s">
         <v>89</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E33" t="s">
@@ -2130,6 +2143,9 @@
       </c>
       <c r="G33" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2172,6 +2188,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8D6A61CD66F1C4986833B5138ED7A1E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="36f49b0d070f87905e07f2fcf666f976">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="62086858-c7fc-4317-a528-fbcc0d542793" xmlns:ns4="25d13fcc-d918-4475-97d5-9d6c36f8d2fb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3bd6aa96eef3bd2260962b124683ae" ns3:_="" ns4:_="">
     <xsd:import namespace="62086858-c7fc-4317-a528-fbcc0d542793"/>
@@ -2394,22 +2425,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9076F3C9-4C95-4741-AAB7-6C3EE8F4E466}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="25d13fcc-d918-4475-97d5-9d6c36f8d2fb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="62086858-c7fc-4317-a528-fbcc0d542793"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3A2022-F622-4FFD-9A7D-A68AB15D2D69}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4010517F-94F2-4ECC-9061-3DD0294D567E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2426,29 +2467,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3A2022-F622-4FFD-9A7D-A68AB15D2D69}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9076F3C9-4C95-4741-AAB7-6C3EE8F4E466}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="25d13fcc-d918-4475-97d5-9d6c36f8d2fb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="62086858-c7fc-4317-a528-fbcc0d542793"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>